--- a/BD/Diccionarío de encuestas.xlsx
+++ b/BD/Diccionarío de encuestas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="139">
   <si>
     <t>encuestas</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>Con "1" indica que la encuesta esta activa, con "0" indica que la encuesta esta inactiva</t>
+  </si>
+  <si>
+    <t>Guarda el nombre del instrumento</t>
+  </si>
+  <si>
+    <t>Almacena la clave o folio del instrumento (encuesta) como identificador para el usuario (el usuario operativo define el folio)</t>
+  </si>
+  <si>
+    <t>Indica el tipo de encuesta, es decir, "1" indica que la encuesta es aplicada por usuario, "2" indica que la encuesta se aplica por grupo y "3" que la encuesta se aplica por bloque</t>
   </si>
 </sst>
 </file>
@@ -856,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1139,9 @@
       <c r="I10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1153,8 +1164,12 @@
       <c r="H11" s="3">
         <v>300</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1182,7 +1197,9 @@
       <c r="I12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1210,9 +1227,11 @@
       <c r="I13" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1252,12 @@
       <c r="H14" s="3">
         <v>20</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1282,7 +1305,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1326,9 @@
       <c r="H17" s="3">
         <v>32</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
